--- a/src/excel/Experiment Papers.xlsx
+++ b/src/excel/Experiment Papers.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{1CAAE8AE-1D26-425C-85C5-036A33513281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{3A0EA94C-A668-4546-A1E1-9D01FEA242D8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="4" xr2:uid="{3A0EA94C-A668-4546-A1E1-9D01FEA242D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -531,6 +531,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,19 +546,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -567,8 +561,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,15 +908,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -1014,15 +1014,15 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -1148,14 +1148,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1314,97 +1314,97 @@
   <sheetData>
     <row r="1" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="M3" s="17" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="M3" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
     </row>
     <row r="4" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="M4" s="18" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="M4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18" t="s">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="2:22" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="K6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="19"/>
       <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="5">
@@ -1494,7 +1494,7 @@
       <c r="K7" s="5">
         <v>0.79999999999999905</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="16" t="s">
         <v>86</v>
       </c>
       <c r="N7" s="5">
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" ht="129" x14ac:dyDescent="0.25">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="5">
@@ -1560,7 +1560,7 @@
       <c r="K8" s="5">
         <v>0.48648648648648601</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N8" s="5">
@@ -1594,7 +1594,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" ht="200.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C9" s="5">
@@ -1626,7 +1626,7 @@
       <c r="K9" s="5">
         <v>0.38461538461538403</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="16" t="s">
         <v>70</v>
       </c>
       <c r="N9" s="5">
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="5">
@@ -1692,7 +1692,7 @@
       <c r="K10" s="5">
         <v>0.4</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="16" t="s">
         <v>73</v>
       </c>
       <c r="N10" s="5">
@@ -1726,7 +1726,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="5">
@@ -1758,7 +1758,7 @@
       <c r="K11" s="5">
         <v>0.46153846153846101</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="16" t="s">
         <v>87</v>
       </c>
       <c r="N11" s="5">
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="200.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="5">
@@ -1824,7 +1824,7 @@
       <c r="K12" s="5">
         <v>0.46808510638297801</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="16" t="s">
         <v>88</v>
       </c>
       <c r="N12" s="5">
@@ -1858,7 +1858,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="171.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="5">
@@ -1890,7 +1890,7 @@
       <c r="K13" s="5">
         <v>0.472727272727272</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="16" t="s">
         <v>89</v>
       </c>
       <c r="N13" s="5">
@@ -1924,7 +1924,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="143.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="5">
@@ -1956,7 +1956,7 @@
       <c r="K14" s="5">
         <v>0.55172413793103403</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="16" t="s">
         <v>90</v>
       </c>
       <c r="N14" s="5">
@@ -1990,7 +1990,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="5">
@@ -2022,7 +2022,7 @@
       <c r="K15" s="5">
         <v>0.5</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="16" t="s">
         <v>91</v>
       </c>
       <c r="N15" s="5">
@@ -2056,97 +2056,97 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="M18" s="17" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="M18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="M19" s="18" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="M19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19" t="s">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18" t="s">
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18" t="s">
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
     </row>
     <row r="21" spans="2:22" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="8" t="s">
         <v>11</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="K21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="18"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="8" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="5">
@@ -2236,7 +2236,7 @@
       <c r="K22" s="5">
         <v>0.53333333333333299</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="16" t="s">
         <v>86</v>
       </c>
       <c r="N22" s="5">
@@ -2270,7 +2270,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="129" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="5">
@@ -2296,13 +2296,13 @@
         <v>0.36842105263157798</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" ref="J22:J24" si="11">H23</f>
+        <f t="shared" ref="J23:J24" si="11">H23</f>
         <v>0.38888888888888801</v>
       </c>
       <c r="K23" s="5">
         <v>0.37837837837837801</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="16" t="s">
         <v>67</v>
       </c>
       <c r="N23" s="5">
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="200.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="5">
@@ -2368,7 +2368,7 @@
       <c r="K24" s="5">
         <v>0.269230769230769</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="16" t="s">
         <v>70</v>
       </c>
       <c r="N24" s="5">
@@ -2402,7 +2402,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="5">
@@ -2434,7 +2434,7 @@
       <c r="K25" s="5">
         <v>0.133333333333333</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="16" t="s">
         <v>73</v>
       </c>
       <c r="N25" s="5">
@@ -2468,7 +2468,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="5">
@@ -2500,7 +2500,7 @@
       <c r="K26" s="5">
         <v>0.30769230769230699</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="M26" s="16" t="s">
         <v>87</v>
       </c>
       <c r="N26" s="5">
@@ -2534,7 +2534,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="200.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C27" s="5">
@@ -2566,7 +2566,7 @@
       <c r="K27" s="5">
         <v>0.38297872340425498</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="16" t="s">
         <v>88</v>
       </c>
       <c r="N27" s="5">
@@ -2600,7 +2600,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="171.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="5">
@@ -2632,7 +2632,7 @@
       <c r="K28" s="5">
         <v>0.43636363636363601</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="16" t="s">
         <v>89</v>
       </c>
       <c r="N28" s="5">
@@ -2666,7 +2666,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="143.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="16" t="s">
         <v>98</v>
       </c>
       <c r="C29" s="5">
@@ -2698,7 +2698,7 @@
       <c r="K29" s="5">
         <v>0.41379310344827502</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="16" t="s">
         <v>90</v>
       </c>
       <c r="N29" s="5">
@@ -2732,7 +2732,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C30" s="5">
@@ -2764,7 +2764,7 @@
       <c r="K30" s="5">
         <v>0.5</v>
       </c>
-      <c r="M30" s="28" t="s">
+      <c r="M30" s="16" t="s">
         <v>91</v>
       </c>
       <c r="N30" s="5">
@@ -2799,18 +2799,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M18:V18"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:V19"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="M3:V3"/>
     <mergeCell ref="B4:B6"/>
@@ -2823,6 +2811,18 @@
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="T5:V5"/>
+    <mergeCell ref="M18:V18"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:V19"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2878,61 +2878,61 @@
       <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="22">
         <v>0.49532777997059402</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="22">
         <v>0.51727242411025898</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>0.51024802252532797</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="22">
         <v>0.48641265079379198</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="22">
         <v>0.499100118875203</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="H6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="22">
         <v>0.49803453760942901</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
@@ -2954,64 +2954,72 @@
       <c r="B9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="22">
         <v>0.33405276013310597</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="H9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="22">
         <v>0.30828577514108901</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="22">
         <v>0.34203071797109302</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="H10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="22">
         <v>0.289907070090417</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="22">
         <v>0.33568137362697698</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="22">
         <v>0.29683246068506902</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
@@ -3020,14 +3028,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3037,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978DBB1B-010F-4F6F-A54E-725AB1FAE836}">
   <dimension ref="B3:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,140 +3085,142 @@
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="22">
         <v>0.45001078848450998</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="22">
         <v>0.40972284943333298</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>0.66594723986689097</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="H6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="23">
         <v>0.69171422485890799</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="23">
         <v>0.33568137362697698</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
       <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <v>0.29683246068506902</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="H8" s="22" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="H8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>0.54509960103212596</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="23">
         <v>0.52443708819935397</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>0.50467222002940804</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="H10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="23">
         <v>0.48272757588974102</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <v>0.499100118875203</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="H11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>0.49803453760942901</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
@@ -3235,8 +3237,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="H8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3270,23 +3270,23 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="22" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -3382,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E53127-E85F-4DDC-800E-F46DA74C3F63}">
   <dimension ref="B3:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -3402,23 +3402,23 @@
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -3509,15 +3509,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100621F0AA40BA2B746A3D3118F02DAFA7A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25adef9fa906f8c601e6b1b48cc82ac7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5bbdd143-18fe-4f55-8a4b-d47f52e2fa1a" xmlns:ns4="7ff5c85d-f039-49f0-bdbf-54b95d3f9faf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c11a7d222645d0502b0c8b1ff00280e" ns3:_="" ns4:_="">
     <xsd:import namespace="5bbdd143-18fe-4f55-8a4b-d47f52e2fa1a"/>
@@ -3746,6 +3737,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68E9A6D0-3AF3-4BE3-A759-DFA7ABE963E0}">
   <ds:schemaRefs>
@@ -3764,14 +3764,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A7DF1D-2CDC-418D-BC10-9E8C4E3FF101}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0207B8FF-08C9-4F88-A23A-D3EC7F34BAF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3788,4 +3780,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A7DF1D-2CDC-418D-BC10-9E8C4E3FF101}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>